--- a/GroceryStore/GroceryStore/Resources/Excel/output.xlsx
+++ b/GroceryStore/GroceryStore/Resources/Excel/output.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R94c046e113384b93"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R8eaad11a4d5349e9"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -26,13 +26,13 @@
     </x:row>
     <x:row>
       <x:c>
-        <x:v>Lê Huỳnh Phát</x:v>
+        <x:v>Nguyễn Hữu Tín</x:v>
       </x:c>
       <x:c>
-        <x:v>45000</x:v>
+        <x:v>131000</x:v>
       </x:c>
       <x:c>
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c>
         <x:v>05/06/2023</x:v>
